--- a/info/Max-min-max/Alpha2 Analysis.xlsx
+++ b/info/Max-min-max/Alpha2 Analysis.xlsx
@@ -249,6 +249,970 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Alpha2 / NP3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Alpha2 Analysis'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Alpha2 Analysis'!$B$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52777777777777768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61805555555555547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61805555555555547</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62499999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64930555555555547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64930555555555547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6284722222222221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="275647216"/>
+        <c:axId val="275645536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="275647216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275645536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="275645536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275647216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>26040</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -525,7 +1489,7 @@
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -563,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -600,8 +1564,9 @@
       <c r="L2" s="1">
         <v>0.95833333333333304</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -639,7 +1604,7 @@
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -677,7 +1642,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -715,7 +1680,7 @@
         <v>0.29166666666666702</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -753,7 +1718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -791,7 +1756,7 @@
         <v>4.1666666666666699E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -829,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -867,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -905,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -943,7 +1908,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -981,7 +1946,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1019,7 +1984,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1072,6 +2037,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
